--- a/static/download/2023/RP3_ERT_ATFM_2023_Jan_Apr.xlsx
+++ b/static/download/2023/RP3_ERT_ATFM_2023_Jan_Apr.xlsx
@@ -1269,7 +1269,7 @@
         <v>9</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" ht="13.5" customHeight="1">
